--- a/biology/Botanique/Myrtales/Myrtales.xlsx
+++ b/biology/Botanique/Myrtales/Myrtales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Myrtales sont un ordre de plantes dicotylédones.
-En classification classique de Cronquist (1981)[1] il comprend 12 familles :
+En classification classique de Cronquist (1981) il comprend 12 familles :
 Combrétacées
 Cryptéroniacées
 Lythracées (famille de la salicaire)
-Mélastomatacées ou bien "Mélastomacées" dans certaines publications [2]
+Mélastomatacées ou bien "Mélastomacées" dans certaines publications 
 Myrtacées
 Oliniacées
 Onagracées
@@ -496,7 +508,7 @@
 Sonnératiacées
 Thyméléacées (famille du bois joli)
 Trapacées
-En classification phylogénétique APG (1998)[3], sa composition est modifiée comme suit :
+En classification phylogénétique APG (1998), sa composition est modifiée comme suit :
 ordre Myrtales
 : famille Alzateaceae
 : famille Combretaceae
@@ -512,7 +524,7 @@
 : famille Psiloxylaceae
 : famille Rhynchocalycaceae
 : famille Vochysiaceae
-En classification phylogénétique APG II (2003)[4], cette circonscription est modifiée un petit peu :
+En classification phylogénétique APG II (2003), cette circonscription est modifiée un petit peu :
 ordre Myrtales
 : famille Alzateaceae
 : famille Combretaceae
@@ -530,8 +542,8 @@
 : famille Vochysiaceae
 NB. "[+ ...]" = famille optionnelle
 Le Angiosperm Phylogeny Website [29 avril 2007] accepte la famille Memecylaceae, mais n'accepte pas la famille Psiloxylaceae.
-classification phylogénétique APG III (2009)[5] place cet ordre sous Malvidées (au lieu de directement sous Rosidées pour classification phylogénétique APG II (2003)[4]).
-En classification phylogénétique APG III (2009)[5], sa circonscription est :
+classification phylogénétique APG III (2009) place cet ordre sous Malvidées (au lieu de directement sous Rosidées pour classification phylogénétique APG II (2003)).
+En classification phylogénétique APG III (2009), sa circonscription est :
 ordre Myrtales Juss. ex Bercht. &amp; J.Presl (1820)
 : famille Alzateaceae S.A.Graham (1985)
 : famille Combretaceae R.Br. (1810)
